--- a/Automation/data/Bookselenium.xlsx
+++ b/Automation/data/Bookselenium.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="10">
   <si>
     <t/>
   </si>
